--- a/data/trans_dic/P19C01-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19C01-Clase-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.5201396961479191</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.6768021435943872</v>
+        <v>0.6768021435943873</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3162259195403777</v>
+        <v>0.3192726292795133</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3126529657023525</v>
+        <v>0.3178696641497991</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4608174567918628</v>
+        <v>0.4606144263086096</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6396565543171903</v>
+        <v>0.6421516685082876</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3529136124923342</v>
+        <v>0.354162490550315</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.397262159003646</v>
+        <v>0.4000783104058817</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4735033992837958</v>
+        <v>0.475722395814378</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6318880393041717</v>
+        <v>0.6333110238527819</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3510110250802891</v>
+        <v>0.3490926617117631</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.367900814368951</v>
+        <v>0.3660249783963054</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4765868234256377</v>
+        <v>0.4825188903874999</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.6490255234526869</v>
+        <v>0.6479627571320213</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4178542315847484</v>
+        <v>0.4219651727842693</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4200989116022043</v>
+        <v>0.4225011893240129</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5659594577431303</v>
+        <v>0.5634918504958858</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7230202353504639</v>
+        <v>0.7233216533493745</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4730571549212908</v>
+        <v>0.4747668341281248</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5153031445898223</v>
+        <v>0.5252887324284102</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5840205022485823</v>
+        <v>0.5891235683290308</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7095984582027848</v>
+        <v>0.7098793196908465</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4271024389650991</v>
+        <v>0.4258007890428576</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4462824098875895</v>
+        <v>0.4432979811432759</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5552680534032397</v>
+        <v>0.5587430260919155</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.7049699171376679</v>
+        <v>0.7041765314060473</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.4641612900788105</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6511467437786421</v>
+        <v>0.651146743778642</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.3789091466360725</v>
@@ -821,7 +821,7 @@
         <v>0.542117052781722</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.6838024347672083</v>
+        <v>0.6838024347672084</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3455238603627254</v>
@@ -833,7 +833,7 @@
         <v>0.5041532307952082</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.6663570353198713</v>
+        <v>0.6663570353198716</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2529450927619409</v>
+        <v>0.2536086827965692</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3134269587970314</v>
+        <v>0.3160674026373349</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4065599980838402</v>
+        <v>0.4066344795807542</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6053354360851392</v>
+        <v>0.5999713450834102</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3241179426763028</v>
+        <v>0.3303928448198023</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4027426582796572</v>
+        <v>0.3989303299552628</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4902269669125059</v>
+        <v>0.4835106583606341</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.6411425699918031</v>
+        <v>0.6410364241403076</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3071345057052697</v>
+        <v>0.3094808433326431</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3676290003715564</v>
+        <v>0.3730550281392467</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4614166318645001</v>
+        <v>0.4671939117033837</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.6339700053313932</v>
+        <v>0.6368060330229783</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3677229742614195</v>
+        <v>0.3687635905794306</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4264786699076624</v>
+        <v>0.4241668814680157</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5229052779264439</v>
+        <v>0.5198371910305534</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6968082593907251</v>
+        <v>0.6942503565693621</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4363091747339793</v>
+        <v>0.4328841592712235</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5183112837345528</v>
+        <v>0.5109370318815332</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6018598555317662</v>
+        <v>0.5986969582324922</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7227294314718671</v>
+        <v>0.7224657466178838</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3899365697071128</v>
+        <v>0.3857391344831014</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4482378907720512</v>
+        <v>0.4512221242097894</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.543531797463131</v>
+        <v>0.5485624048050701</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6935516438607524</v>
+        <v>0.6963163918917773</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.3381010881196424</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.5610094966114211</v>
+        <v>0.5610094966114212</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2914628916400643</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2331940344909527</v>
+        <v>0.2348983236174902</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2239060035823413</v>
+        <v>0.2247495116342639</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3311863790993438</v>
+        <v>0.3273340611371615</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5128252560573526</v>
+        <v>0.5066975454623508</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2763516314539999</v>
+        <v>0.2761380679517138</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2710135275727891</v>
+        <v>0.262080007878039</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2554820312962798</v>
+        <v>0.2648718535560518</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5009642216769726</v>
+        <v>0.5063018823647387</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2519470405635946</v>
+        <v>0.2541470747458218</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2484885410919544</v>
+        <v>0.2497070410470602</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3272284572767188</v>
+        <v>0.3218305447642269</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.5155891131750927</v>
+        <v>0.5182727870255937</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3212029327804961</v>
+        <v>0.3241031686699806</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.303686047483142</v>
+        <v>0.3009507017552124</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4292150081873214</v>
+        <v>0.4215307717685589</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6058096622947625</v>
+        <v>0.6007437495642381</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4395794987927568</v>
+        <v>0.4303532703890023</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.390402211677443</v>
+        <v>0.382925825121669</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.418577193815267</v>
+        <v>0.4278065761655315</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6238196852745687</v>
+        <v>0.6274532087756668</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3304807528231734</v>
+        <v>0.3304131071215158</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3155459522101824</v>
+        <v>0.3175199189418874</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4079914469356508</v>
+        <v>0.4096202915267586</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5946713164768015</v>
+        <v>0.5974461702516999</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2141099025730068</v>
+        <v>0.2128904043761153</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2119202171775001</v>
+        <v>0.2120711998888122</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3331529950640749</v>
+        <v>0.3330501269687065</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4891759386230076</v>
+        <v>0.4902646194743898</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2977564243797171</v>
+        <v>0.2955766713232509</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3181747758284295</v>
+        <v>0.3188682428548479</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3581783891868064</v>
+        <v>0.3613691001712874</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5741557165392113</v>
+        <v>0.573102441384476</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2561644238754444</v>
+        <v>0.2586266673866219</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2647162841405377</v>
+        <v>0.2628928561098806</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3541507512328373</v>
+        <v>0.3558650083306013</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.5327305644134328</v>
+        <v>0.5365040622923634</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2737592296794618</v>
+        <v>0.2732824144699373</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2669584164395103</v>
+        <v>0.267854068029357</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3999987186773394</v>
+        <v>0.4033837334025264</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5545970474735108</v>
+        <v>0.5546822268559733</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3786276649819368</v>
+        <v>0.3750596891716608</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3927823584353008</v>
+        <v>0.3918380287811242</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4344131122825627</v>
+        <v>0.4333526568559566</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6334402701243759</v>
+        <v>0.6327166234104445</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3036752914063859</v>
+        <v>0.3046851377018159</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3108565286486965</v>
+        <v>0.3111187779569013</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4049588056501349</v>
+        <v>0.405765087051759</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.579536193053139</v>
+        <v>0.5816467929479936</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.3012397671181669</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4401739404787019</v>
+        <v>0.440173940478702</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.2886928768213588</v>
@@ -1241,7 +1241,7 @@
         <v>0.3444784771720497</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.4775264474420015</v>
+        <v>0.4775264474420013</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2277330582385361</v>
+        <v>0.2285600361341623</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1729209259082078</v>
+        <v>0.1729849441122122</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.256746851975752</v>
+        <v>0.2586919676995273</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3942029697884837</v>
+        <v>0.3907323924687629</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2457660611090797</v>
+        <v>0.2479933740429979</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2245243422421405</v>
+        <v>0.2252281884804837</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3404539059361604</v>
+        <v>0.3356487385923755</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4708610519600966</v>
+        <v>0.4727108099663526</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2534690937722907</v>
+        <v>0.2546891623724342</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2154471633610581</v>
+        <v>0.2118771137334645</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3120725527037419</v>
+        <v>0.3163866846469005</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4529888802325385</v>
+        <v>0.4504581030682717</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3428988932327799</v>
+        <v>0.3455747956466598</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2544934730481</v>
+        <v>0.2571172579522215</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3448517785778775</v>
+        <v>0.3480227933794057</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4882826773491007</v>
+        <v>0.4842962555058294</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3347123146186213</v>
+        <v>0.333386984495307</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2938147886208697</v>
+        <v>0.2953575176343819</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4229840216859355</v>
+        <v>0.4161223475941795</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5312118705756258</v>
+        <v>0.530947631492568</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3218745772880297</v>
+        <v>0.3245133161287914</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2687822739317126</v>
+        <v>0.2669596994802694</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3742202729122258</v>
+        <v>0.377290518024787</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.5045429731536606</v>
+        <v>0.5032332038762227</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.5507351751445195</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.6546214015167697</v>
+        <v>0.6546214015167696</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.256366590192176</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3808619988824443</v>
+        <v>0.3777118586592032</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.444356885586525</v>
+        <v>0.4408314734006785</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4816682573198515</v>
+        <v>0.4917104941935569</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5411093931141978</v>
+        <v>0.5498102983813553</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2277424649290346</v>
+        <v>0.2274448574971069</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2920441723909175</v>
+        <v>0.2909748227256594</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.4084105739812654</v>
+        <v>0.4068117608344617</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.5444785890866419</v>
+        <v>0.5432152611826198</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2658218508418709</v>
+        <v>0.2665609999774554</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.3309615619294977</v>
+        <v>0.3283642085487278</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.4395387433751928</v>
+        <v>0.4345621676064336</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.5581375119522209</v>
+        <v>0.5610850694989354</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5135795209885886</v>
+        <v>0.5163131547894526</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5727050197272503</v>
+        <v>0.5758106910702222</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6166428665856476</v>
+        <v>0.6142835569313426</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.7576046116483007</v>
+        <v>0.7538935365810835</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2832525878167853</v>
+        <v>0.2852448719176993</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3554362687977694</v>
+        <v>0.3519594846553391</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.4824489949454887</v>
+        <v>0.4724489880860903</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.6146922702376144</v>
+        <v>0.6111742745212269</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3158960800488397</v>
+        <v>0.3189184161064709</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3862008251006949</v>
+        <v>0.3854475082853878</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4991849914214532</v>
+        <v>0.4955646527995256</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.630928174086547</v>
+        <v>0.6295238173580483</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2810819783999097</v>
+        <v>0.2777890641936241</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2761903775461258</v>
+        <v>0.2761511406999773</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3863594036693024</v>
+        <v>0.3863207523580087</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5473515045769187</v>
+        <v>0.5472689501653457</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2951761321928557</v>
+        <v>0.2957847495498713</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3251195883489382</v>
+        <v>0.3247137806501257</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4162089421795761</v>
+        <v>0.4170143198343187</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5765871921231233</v>
+        <v>0.5770473974992112</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.294740801808701</v>
+        <v>0.2944297253785791</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.3076427092385104</v>
+        <v>0.3065936730295115</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4084511955121036</v>
+        <v>0.4068946053908077</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.5691224605372333</v>
+        <v>0.5677592436343466</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3186907444462385</v>
+        <v>0.3165929620736915</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3115345775563303</v>
+        <v>0.312035265615243</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4262288312239016</v>
+        <v>0.4269083796008893</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5884448644201584</v>
+        <v>0.584755754942113</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3313219982480783</v>
+        <v>0.3312980281774862</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3595851978102144</v>
+        <v>0.3604232524936754</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.455894702286312</v>
+        <v>0.4531894490333914</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6063089240618846</v>
+        <v>0.6068040257115375</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3192425163871133</v>
+        <v>0.3203956728469934</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3314567672461444</v>
+        <v>0.3321159175413545</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.4347225828978027</v>
+        <v>0.4346847728648464</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.5932936766708971</v>
+        <v>0.591829073709716</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>122634</v>
+        <v>123816</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>123605</v>
+        <v>125668</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>178619</v>
+        <v>178541</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>346831</v>
+        <v>348184</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>94682</v>
+        <v>95017</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>116777</v>
+        <v>117605</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>149540</v>
+        <v>150241</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>304145</v>
+        <v>304830</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>230296</v>
+        <v>229038</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>253594</v>
+        <v>252301</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>335245</v>
+        <v>339418</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>664304</v>
+        <v>663216</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>162046</v>
+        <v>163641</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>166084</v>
+        <v>167033</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>219374</v>
+        <v>218417</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>392032</v>
+        <v>392196</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>126915</v>
+        <v>127374</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>151475</v>
+        <v>154411</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>184443</v>
+        <v>186055</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>341549</v>
+        <v>341684</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>280219</v>
+        <v>279365</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>307622</v>
+        <v>305565</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>390592</v>
+        <v>393037</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>721566</v>
+        <v>720754</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>75935</v>
+        <v>76135</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>120269</v>
+        <v>121283</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>128740</v>
+        <v>128764</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>290157</v>
+        <v>287585</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>108114</v>
+        <v>110207</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>126260</v>
+        <v>125065</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>163527</v>
+        <v>161287</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>267946</v>
+        <v>267902</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>194653</v>
+        <v>196140</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>256320</v>
+        <v>260103</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>300028</v>
+        <v>303784</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>568831</v>
+        <v>571376</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>110392</v>
+        <v>110705</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>163650</v>
+        <v>162763</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>165582</v>
+        <v>164611</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>334002</v>
+        <v>332776</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>145537</v>
+        <v>144395</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>162491</v>
+        <v>160179</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>200765</v>
+        <v>199710</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>302043</v>
+        <v>301933</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>247130</v>
+        <v>244470</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>312523</v>
+        <v>314603</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>353422</v>
+        <v>356693</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>622291</v>
+        <v>624772</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>100336</v>
+        <v>101069</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>119899</v>
+        <v>120351</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>134200</v>
+        <v>132639</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>237882</v>
+        <v>235039</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>38708</v>
+        <v>38678</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>65216</v>
+        <v>63066</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>35620</v>
+        <v>36929</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>92595</v>
+        <v>93581</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>143694</v>
+        <v>144949</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>192858</v>
+        <v>193804</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>178219</v>
+        <v>175280</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>334462</v>
+        <v>336203</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>138203</v>
+        <v>139451</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>162620</v>
+        <v>161155</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>173923</v>
+        <v>170809</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>281014</v>
+        <v>278664</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>61571</v>
+        <v>60279</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>93945</v>
+        <v>92146</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>58358</v>
+        <v>59645</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>115302</v>
+        <v>115974</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>188485</v>
+        <v>188446</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>244903</v>
+        <v>246435</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>222206</v>
+        <v>223093</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>385762</v>
+        <v>387562</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>186587</v>
+        <v>185524</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>206141</v>
+        <v>206288</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>293010</v>
+        <v>292919</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>535990</v>
+        <v>537182</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>177260</v>
+        <v>175962</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>222064</v>
+        <v>222548</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>245005</v>
+        <v>247188</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>480448</v>
+        <v>479566</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>375735</v>
+        <v>379346</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>442250</v>
+        <v>439204</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>553727</v>
+        <v>556408</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1029496</v>
+        <v>1036788</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>238569</v>
+        <v>238153</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>259678</v>
+        <v>260549</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>351801</v>
+        <v>354778</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>607671</v>
+        <v>607765</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>225404</v>
+        <v>223280</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>274135</v>
+        <v>273476</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>297152</v>
+        <v>296427</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>530056</v>
+        <v>529451</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>445422</v>
+        <v>446904</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>519335</v>
+        <v>519773</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>633168</v>
+        <v>634428</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1119947</v>
+        <v>1124026</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>56461</v>
+        <v>56666</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>69741</v>
+        <v>69767</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>109161</v>
+        <v>109988</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>200984</v>
+        <v>199214</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>112089</v>
+        <v>113105</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>150392</v>
+        <v>150863</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>189797</v>
+        <v>187118</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>373631</v>
+        <v>375098</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>178444</v>
+        <v>179303</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>231204</v>
+        <v>227373</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>306658</v>
+        <v>310897</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>590404</v>
+        <v>587106</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>85014</v>
+        <v>85677</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>102640</v>
+        <v>103698</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>146620</v>
+        <v>147969</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>248950</v>
+        <v>246917</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>152656</v>
+        <v>152051</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>196804</v>
+        <v>197837</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>235806</v>
+        <v>231980</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>421519</v>
+        <v>421310</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>226602</v>
+        <v>228460</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>288440</v>
+        <v>286484</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>367728</v>
+        <v>370745</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>657598</v>
+        <v>655891</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>80831</v>
+        <v>80163</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>98293</v>
+        <v>97513</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>116346</v>
+        <v>118772</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>122175</v>
+        <v>124140</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>215357</v>
+        <v>215075</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>270253</v>
+        <v>269264</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>337057</v>
+        <v>335737</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>445787</v>
+        <v>444753</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>307782</v>
+        <v>308637</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>379477</v>
+        <v>376498</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>468916</v>
+        <v>463607</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>582991</v>
+        <v>586070</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>108999</v>
+        <v>109579</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>126684</v>
+        <v>127371</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>148949</v>
+        <v>148379</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>171057</v>
+        <v>170219</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>267848</v>
+        <v>269732</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>328915</v>
+        <v>325698</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>398160</v>
+        <v>389907</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>503274</v>
+        <v>500394</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>365760</v>
+        <v>369259</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>442813</v>
+        <v>441949</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>532549</v>
+        <v>528687</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>659023</v>
+        <v>657556</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>688620</v>
+        <v>680553</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>804211</v>
+        <v>804097</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1026057</v>
+        <v>1025954</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1815426</v>
+        <v>1815153</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>808468</v>
+        <v>810135</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1021275</v>
+        <v>1020001</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1188532</v>
+        <v>1190832</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>2037151</v>
+        <v>2038777</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1529358</v>
+        <v>1527744</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1862171</v>
+        <v>1855821</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>2251104</v>
+        <v>2242526</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>3898411</v>
+        <v>3889074</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>780758</v>
+        <v>775619</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>907126</v>
+        <v>908584</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1131938</v>
+        <v>1133743</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>1951723</v>
+        <v>1939487</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>907469</v>
+        <v>907403</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1129540</v>
+        <v>1132172</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>1301859</v>
+        <v>1294134</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>2142161</v>
+        <v>2143910</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1656494</v>
+        <v>1662477</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>2006318</v>
+        <v>2010308</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>2395894</v>
+        <v>2395686</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>4063981</v>
+        <v>4053949</v>
       </c>
     </row>
     <row r="32">
